--- a/tareas_exportadas.xlsx
+++ b/tareas_exportadas.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/gestor_tareas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Seguimiento tareas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{BDCB1737-C219-40A5-A127-FF0BE94341C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4BCF48A-506B-495F-93D1-70879DDB3ADB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1019EAF7D575600F62355476585DCE3A87471AB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA1F325-719D-4F76-8A8C-E705348A4F87}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +68,12 @@
     <t>Reunión con Andrea y Pamela</t>
   </si>
   <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
     <t>No hay posibilidad pues se necesita crear un nuevo usuario (nva. Cta de Microsoft)</t>
   </si>
   <si>
@@ -64,21 +83,42 @@
     <t>Resolución Teletrabajo Funcionaria Atacama</t>
   </si>
   <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
     <t>Gabinete</t>
   </si>
   <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
     <t>Solicitar Informe PAC Regionales a Coord.DAF (Resp. PC)</t>
   </si>
   <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
     <t>Reunión con Gabinete -Tema Personas (Resp. PC)</t>
   </si>
   <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
     <t>Agendar Reuniones con DR- Temas Regionales (resdp. DCR)</t>
   </si>
   <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
     <t>Compromiso DAU-SSPP (Resp. PC)</t>
   </si>
   <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
     <t>Reunión con TI(Resp. DCR)-Temas Regiones</t>
   </si>
   <si>
@@ -92,6 +132,9 @@
   </si>
   <si>
     <t>Consulta a Gabinete</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
   </si>
   <si>
     <t>Gabinete queda a cargo del tema.
@@ -101,9 +144,15 @@
     <t>Convenios Regionales (Resp. DCR)</t>
   </si>
   <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
     <t>Multas-Dpto. Jurídico (Resp. DCR) (21-02-2025)</t>
   </si>
   <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -116,6 +165,12 @@
     <t>Marcelo Triviño (DCR)-Reunión con DR</t>
   </si>
   <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
     <t>Perfil Participación Ciudadana (DCR)</t>
   </si>
   <si>
@@ -128,6 +183,9 @@
     <t>Se solicitó a Andrea Alarcón que planillas fuesen enviadas mensualmente.</t>
   </si>
   <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
     <t>Solicitar a Fabiola planilla con Dotación ISL</t>
   </si>
   <si>
@@ -143,16 +201,37 @@
     <t>Reunión con Javier Marguirot y Camila Vergara</t>
   </si>
   <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
     <t>Reunión con Javier Marguirot. Se hicieron algunas observaciones</t>
   </si>
   <si>
     <t>Ver con Emanuel procesos de Compras (reprogramación )</t>
   </si>
   <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
     <t>Planilla Repositorio (reemplazo manual de cortapalos)</t>
   </si>
   <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
     <t>Seguimiento compromisos con TI: Minuta en correo enviada a Pablo y TI</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>Consulta a Pamela y reunión con Andrea Reyes (06-08-2025)</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
   </si>
   <si>
     <t>Arriendo en Santa Cruz</t>
@@ -165,10 +244,16 @@
 Jueves 31/07 se realizó la visita.</t>
   </si>
   <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
     <t>Arica: Fichas ejecutivo plataforma y JAO</t>
   </si>
   <si>
     <t>Seguimiento ficha de contrataciones de Arica: ejecutivo plataforma y JAO</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
   </si>
   <si>
     <t>Caso definición cargo JAO Magallanes</t>
@@ -196,6 +281,9 @@
   </si>
   <si>
     <t>Solicitar a Dpto. Jurídico dar respuesta a correo enviado por Director del Maule.</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
   </si>
   <si>
     <t xml:space="preserve">29-07-2025. Conversación con Viviana Córdova. Dpto Jurídico está en conocimiento del tema y realizado las acciones pertinentes.
@@ -203,10 +291,16 @@
 </t>
   </si>
   <si>
+    <t>Viviana Córdova</t>
+  </si>
+  <si>
     <t>Coquimbo: Ficha apoyo SLEP</t>
   </si>
   <si>
     <t>Seguimiento ficha de contratación plazo fijo. Apoyo SLEP</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
   </si>
   <si>
     <t xml:space="preserve">DR. de vacaciones. Regreso 4/8/2025
@@ -219,28 +313,7 @@
     <t>Ver el tema con Eddie y Alberto</t>
   </si>
   <si>
-    <t>PPTs Presentaciones</t>
-  </si>
-  <si>
-    <t>Solicitar a Héctor PPts de presentaciones de ISL a los SSPP</t>
-  </si>
-  <si>
-    <t>Planilla de enlaces</t>
-  </si>
-  <si>
-    <t>Averiguar con Pamela (TI) cuándo podrá estar "colgada" la planilla</t>
-  </si>
-  <si>
-    <t>Arriendo Sucursal Chillán</t>
-  </si>
-  <si>
-    <t>Ver con Infraestructura tema de arriendo de Sucursal. Documentación fue enviada al Departamento</t>
-  </si>
-  <si>
-    <t>Reunión Marilyn-Temas Magallanes</t>
-  </si>
-  <si>
-    <t>DR solicita reunnión para ver temas especiales de la Región.</t>
+    <t>2025-08-05</t>
   </si>
   <si>
     <t>COSOC aún no contaría con toda la documentación necesaria para su funcionamiento y estaría en proceso de contar con ella.
@@ -252,8 +325,35 @@
     <t>Eddie Arias- Alberto Ramírez</t>
   </si>
   <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>PPTs Presentaciones</t>
+  </si>
+  <si>
+    <t>Solicitar a Héctor PPts de presentaciones de ISL a los SSPP.
+20-08-2025-Solicitar a Héctor compartir (Drive)- PPts SSPP (Salud, Slep, Servicios)</t>
+  </si>
+  <si>
     <t>Héctor enviará lo solicitado. PPts general que son modificadas según la necesidad de la región respectiva.
-11-08-2025. Se encuentra Pendiente (Aún no se reciben las PPTs solicitadas)</t>
+11-08-2025. Se encuentra Pendiente (Aún no se reciben las PPTs solicitadas)
+19-08-2025 Se recibe vía correo PPT de SSP (general)- Insuficiente</t>
+  </si>
+  <si>
+    <t>Planilla de enlaces</t>
+  </si>
+  <si>
+    <t>Averiguar con Pamela (TI) cuándo podrá estar "colgada" la planilla</t>
+  </si>
+  <si>
+    <t>05-08-2025 se solicita a Pamela fecha. Se indica que está en evaluación de la sección para ser colgada.
+Se realiza reunión con Andrea Reyes (07-08-2025)</t>
+  </si>
+  <si>
+    <t>Arriendo Sucursal Chillán</t>
+  </si>
+  <si>
+    <t>Ver con Infraestructura tema de arriendo de Sucursal. Documentación fue enviada al Departamento</t>
   </si>
   <si>
     <t>Documentos en Drive "Segundo Ciclo Búsqueda".
@@ -262,27 +362,77 @@
 Se solicita al DR Maule recabar toda la información.</t>
   </si>
   <si>
-    <t>Araucanía- Oficio al Serv. Salud</t>
-  </si>
-  <si>
-    <t>Solicitar información de etapa en que se encuetra la respuesta del oficio al Serv. Salud.</t>
-  </si>
-  <si>
-    <t>Consulta a Pamela y reunión con Andrea Reyes (06-08-2025)</t>
-  </si>
-  <si>
-    <t>05-08-2025 se solicita a Pamela fecha. Se indica que está en evaluación de la sección para ser colgada.
-Se realiza reunión con Andrea Reyes (07-08-2025)</t>
+    <t>Reunión Marilyn-Temas Magallanes</t>
+  </si>
+  <si>
+    <t>DR solicita reunnión para ver temas especiales de la Región.</t>
   </si>
   <si>
     <t>Se reliza reunión. Se abordan temas relacionados con SLEP Magallanes. SLEP solicita información sobre procedimiento de Evalución de Denunciaa EP.
 Se sugiere comunicarse con Daniela G. y eventualmente realizar una reunión (DR/Salud/Coord.Territorial)</t>
   </si>
   <si>
+    <t>Araucanía- Oficio al Serv. Salud</t>
+  </si>
+  <si>
+    <t>Solicitar información de etapa en que se encuetra la respuesta del oficio al Serv. Salud.</t>
+  </si>
+  <si>
+    <t>07-08-2025 Se consulta por situación de repuesta. Se indica que está en últimas revisiones
+11-08-2025 Nueva consulta. Gabinete informa que aún no ha sido enviada que se realizará éste mismo día.
+19-08-2025. Nueva consulta. La respuesta no ha sido enviada</t>
+  </si>
+  <si>
     <t>Apoyo Seguro Escolar (Magallanes)</t>
   </si>
   <si>
     <t>Conversar con Ruth. Hospital de Natales se niega dar atención a estudiantes por Seguro Escolar. Existe desconocimiento de cómo opera el seguro tanto desde el Serviciode Salud como de la Directora. Se necesita entregar apoyo desde DAU (materiales y capacitaciones)</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>Se conversó con Ruth y se solicitó tomar contacto con DR. 
+18-08-2025 DR mediante correo electrónico insiste en solicitud. Se le indica que se comunique directamente con Ruth para ver el tema. 
+19-08-2025 Se insiste con Ruth para que tome contacto con DR.</t>
+  </si>
+  <si>
+    <t>Ruth Espejo</t>
+  </si>
+  <si>
+    <t>Reunión dotación Bíobío</t>
+  </si>
+  <si>
+    <t>Reunión para definir algunos cupos de prioridad</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t>Situación plataforma Linares con cambio de dependencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver los acuerdos con Bastián </t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>Los Ríos- Contrato Fundación Hospital Panguipulli</t>
+  </si>
+  <si>
+    <t>Contrato de prestaciones próximo a vencer. Se solicita a DR aclatoria sobre precios del contrato.
+Enviar información a Viviana Córdova</t>
+  </si>
+  <si>
+    <t>18-08-2025 Se conversa y pone en conocimineto del tema a Viviana Córdova (Jefa Jurídico)
+19-08-2025 Se reenvía documentación sobre el tema a Viviana (correos y contrato)</t>
   </si>
 </sst>
 </file>
@@ -301,6 +451,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,69 +489,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -698,22 +796,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="242.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +848,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>45703</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45705</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45705</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,23 +869,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45698</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45699</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45700</v>
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,20 +892,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45703</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45720</v>
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,20 +912,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45701</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2">
-        <v>45701</v>
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,20 +932,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45707</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45720</v>
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,20 +952,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45707</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45706</v>
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,20 +972,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45701</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2">
-        <v>45707</v>
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,54 +992,54 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45705</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45334</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2">
-        <v>45700</v>
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -960,20 +1047,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45707</v>
-      </c>
-      <c r="F11" s="3"/>
       <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="2">
-        <v>45709</v>
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -981,58 +1067,53 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45712</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45706</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45709</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45709</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45707</v>
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1040,20 +1121,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45716</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45733</v>
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,39 +1141,36 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E16" s="2">
-        <v>45716</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45716</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45720</v>
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1101,73 +1178,71 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45708</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45712</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="2">
-        <v>45708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45708</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45712</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45721</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45726</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="2">
-        <v>45733</v>
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,86 +1250,82 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45721</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45723</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
       <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45729</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45733</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="2">
-        <v>45733</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="2">
-        <v>45875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="2">
-        <v>45869</v>
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1262,252 +1333,250 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
       <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2">
-        <v>45873</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45869</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45867</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45869</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45868</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45873</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="2">
-        <v>45873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E30" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="2">
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>78</v>
+      <c r="F32" t="s">
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45875</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45875</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2">
-        <v>45875</v>
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1515,50 +1584,129 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45875</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45876</v>
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45882</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45883</v>
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:E36">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tareas_exportadas.xlsx
+++ b/tareas_exportadas.xlsx
@@ -5,38 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pclaissacs\OneDrive - Instituto de Seguridad Laboral\2.- 2025\1.Coordinación Regional\Códigos-Aplicaciones\Seguimiento tareas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Códigos-Aplicaciones/Seguimiento tareas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2C361-F793-4B55-AD4C-896194B170B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F10D2E5-6DFD-4DCF-9E1B-4D9ADD922CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="480" windowWidth="27780" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="105" windowWidth="13200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$42</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +55,9 @@
     <t>Reunión con Andrea y Pamela</t>
   </si>
   <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
     <t>2025-02-17</t>
   </si>
   <si>
@@ -83,6 +70,12 @@
     <t>Resolución Teletrabajo Funcionaria Atacama</t>
   </si>
   <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
     <t>Gabinete</t>
   </si>
   <si>
@@ -126,6 +119,9 @@
   </si>
   <si>
     <t>Consulta a Gabinete</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
   </si>
   <si>
     <t>Gabinete queda a cargo del tema.
@@ -141,6 +137,9 @@
     <t>Multas-Dpto. Jurídico (Resp. DCR) (21-02-2025)</t>
   </si>
   <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -153,6 +152,9 @@
     <t>Marcelo Triviño (DCR)-Reunión con DR</t>
   </si>
   <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
     <t>2025-03-17</t>
   </si>
   <si>
@@ -186,16 +188,31 @@
     <t>Reunión con Javier Marguirot y Camila Vergara</t>
   </si>
   <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
     <t>Reunión con Javier Marguirot. Se hicieron algunas observaciones</t>
   </si>
   <si>
     <t>Ver con Emanuel procesos de Compras (reprogramación )</t>
   </si>
   <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
     <t>Planilla Repositorio (reemplazo manual de cortapalos)</t>
   </si>
   <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
     <t>Seguimiento compromisos con TI: Minuta en correo enviada a Pablo y TI</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
   </si>
   <si>
     <t>Consulta a Pamela y reunión con Andrea Reyes (06-08-2025)</t>
@@ -251,6 +268,9 @@
   </si>
   <si>
     <t>Solicitar a Dpto. Jurídico dar respuesta a correo enviado por Director del Maule.</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
   </si>
   <si>
     <t xml:space="preserve">29-07-2025. Conversación con Viviana Córdova. Dpto Jurídico está en conocimiento del tema y realizado las acciones pertinentes.
@@ -267,6 +287,9 @@
     <t>Seguimiento ficha de contratación plazo fijo. Apoyo SLEP</t>
   </si>
   <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR. de vacaciones. Regreso 4/8/2025
 </t>
   </si>
@@ -275,6 +298,9 @@
   </si>
   <si>
     <t>Ver el tema con Eddie y Alberto</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
   </si>
   <si>
     <t>COSOC aún no contaría con toda la documentación necesaria para su funcionamiento y estaría en proceso de contar con ella.
@@ -351,6 +377,9 @@
     <t>Conversar con Ruth. Hospital de Natales se niega dar atención a estudiantes por Seguro Escolar. Existe desconocimiento de cómo opera el seguro tanto desde el Serviciode Salud como de la Directora. Se necesita entregar apoyo desde DAU (materiales y capacitaciones)</t>
   </si>
   <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
     <t>2025-08-14</t>
   </si>
   <si>
@@ -380,6 +409,9 @@
     <t xml:space="preserve">Ver los acuerdos con Bastián </t>
   </si>
   <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
     <t>Los Ríos- Contrato Fundación Hospital Panguipulli</t>
   </si>
   <si>
@@ -412,6 +444,12 @@
     <t>Fabiola Díaz Díaz (Tecnóloga Médica) reclama por tardanza en la toma de exámenes  (estudio citogenético en las independencias de la Comisión Chilena de Energía Nuclear) ordenados por SEREMI de Salud</t>
   </si>
   <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
     <t>09-09-2025: DR señala que el tema está siendo gestionado por María Soledad Soto.</t>
   </si>
   <si>
@@ -424,7 +462,28 @@
     <t>Realizar reunión con Patricio Arenas para conocer el proceso de prevención (Trabajo en terreno y obtención de información-datos)</t>
   </si>
   <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
     <t>08-09-2025: Se realiza una primera reunión para conversar y explicar nuestras necesidades y objetivos. Se realizará una nueva reunión dentrao de esta semana, para conocer con más detalles y con el uso de herramientas (tablets y planillas) el proceso.</t>
+  </si>
+  <si>
+    <t>Exámenes Ocupacionales- Facturación (Chile Chico)</t>
+  </si>
+  <si>
+    <t>Solicitar a Departamento de Prevención se comuniquen con DR de Aysén para ver tema de facturación de exámenes Ocupacionales del Hospital de Chile Chico.</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>16-09-2025. Se realiza la solicitud. Hacer seguimiento.</t>
+  </si>
+  <si>
+    <t>Camila Vergara</t>
   </si>
 </sst>
 </file>
@@ -443,7 +502,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,12 +539,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,19 +846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="242.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -842,20 +891,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>45703</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45705</v>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -863,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45698</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45699</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,19 +935,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45703</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,19 +955,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45701</v>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -926,19 +975,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45707</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,19 +995,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45707</v>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,19 +1015,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45701</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,25 +1035,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45705</v>
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,28 +1061,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45334</v>
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1041,19 +1090,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45707</v>
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,16 +1110,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45700</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45712</v>
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,16 +1127,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45706</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45709</v>
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1095,19 +1144,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45709</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,19 +1164,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E15" s="2">
-        <v>45716</v>
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,16 +1184,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E16" s="2">
-        <v>45716</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1152,19 +1201,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45707</v>
-      </c>
-      <c r="E17" s="2">
-        <v>45716</v>
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1172,22 +1221,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45708</v>
-      </c>
-      <c r="E18" s="2">
-        <v>45712</v>
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,22 +1244,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45708</v>
-      </c>
-      <c r="E19" s="2">
-        <v>45712</v>
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1218,25 +1267,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45721</v>
-      </c>
-      <c r="E20" s="2">
-        <v>45726</v>
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1244,16 +1293,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45721</v>
-      </c>
-      <c r="E21" s="2">
-        <v>45723</v>
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,19 +1310,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45729</v>
-      </c>
-      <c r="E22" s="2">
-        <v>45733</v>
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,19 +1330,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45856</v>
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1301,25 +1350,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E24" s="2">
-        <v>45875</v>
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,19 +1376,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45856</v>
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,25 +1396,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45875</v>
+      <c r="E26" t="s">
+        <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,25 +1422,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45856</v>
-      </c>
-      <c r="E27" s="2">
-        <v>45869</v>
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1399,28 +1448,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="2">
-        <v>45867</v>
-      </c>
-      <c r="E28" s="2">
-        <v>45869</v>
-      </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1428,25 +1477,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45868</v>
-      </c>
-      <c r="E29" s="2">
-        <v>45873</v>
-      </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,28 +1503,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E30" s="2">
-        <v>45875</v>
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,22 +1532,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E31" s="2">
-        <v>45875</v>
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1506,22 +1555,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E32" s="2">
-        <v>45875</v>
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,22 +1578,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45874</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45875</v>
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1552,25 +1601,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45875</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45875</v>
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,25 +1627,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="2">
-        <v>45875</v>
-      </c>
-      <c r="E35" s="2">
-        <v>45876</v>
-      </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,28 +1653,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45882</v>
-      </c>
-      <c r="E36" s="2">
-        <v>45883</v>
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1633,25 +1682,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45887</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45887</v>
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,19 +1708,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45888</v>
-      </c>
-      <c r="E38" s="2">
-        <v>45888</v>
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1679,25 +1728,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45888</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45888</v>
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1705,25 +1754,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45895</v>
-      </c>
-      <c r="E40" s="2">
-        <v>45895</v>
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1731,25 +1780,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45902</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45905</v>
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,22 +1806,48 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45908</v>
-      </c>
-      <c r="E42" s="2">
-        <v>45912</v>
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
